--- a/Phần_2/Data/TH.xlsx
+++ b/Phần_2/Data/TH.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -3518,7 +3518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3528,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,8 +3537,8 @@
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="48.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -3574,10 +3574,10 @@
         <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3592,10 +3592,10 @@
         <v>85</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3610,10 +3610,10 @@
         <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3628,10 +3628,10 @@
         <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3646,10 +3646,10 @@
         <v>92</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3664,10 +3664,10 @@
         <v>94</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3682,10 +3682,10 @@
         <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3700,10 +3700,10 @@
         <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3716,10 +3716,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3732,10 +3732,10 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3748,10 +3748,10 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3766,10 +3766,10 @@
         <v>103</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3784,10 +3784,10 @@
         <v>105</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3800,10 +3800,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3818,10 +3818,10 @@
         <v>108</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3836,10 +3836,10 @@
         <v>111</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3854,10 +3854,10 @@
         <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3872,10 +3872,10 @@
         <v>117</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3890,10 +3890,10 @@
         <v>120</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3908,10 +3908,10 @@
         <v>123</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3926,10 +3926,10 @@
         <v>126</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3942,10 +3942,10 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3958,10 +3958,10 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3976,10 +3976,10 @@
         <v>133</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3992,10 +3992,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4008,10 +4008,10 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -4026,10 +4026,10 @@
         <v>140</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4042,10 +4042,10 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4058,10 +4058,10 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4074,10 +4074,10 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4092,10 +4092,10 @@
         <v>147</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4110,10 +4110,10 @@
         <v>149</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4128,10 +4128,10 @@
         <v>151</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4144,10 +4144,10 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4162,10 +4162,10 @@
         <v>154</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4182,10 +4182,10 @@
         <v>156</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4202,10 +4202,10 @@
         <v>158</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4222,10 +4222,10 @@
         <v>159</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4242,10 +4242,10 @@
         <v>161</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4262,10 +4262,10 @@
         <v>163</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4282,10 +4282,10 @@
         <v>164</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4302,10 +4302,10 @@
         <v>166</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4322,10 +4322,10 @@
         <v>167</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4342,10 +4342,10 @@
         <v>169</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4362,10 +4362,10 @@
         <v>171</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4382,10 +4382,10 @@
         <v>173</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4402,13 +4402,13 @@
         <v>175</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>79760414</v>
       </c>
@@ -4422,10 +4422,10 @@
         <v>176</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4442,10 +4442,10 @@
         <v>178</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4462,10 +4462,10 @@
         <v>179</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4482,10 +4482,10 @@
         <v>180</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4500,10 +4500,10 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4520,10 +4520,10 @@
         <v>184</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>185</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4560,10 +4560,10 @@
         <v>187</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4580,10 +4580,10 @@
         <v>188</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4600,10 +4600,10 @@
         <v>189</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4620,10 +4620,10 @@
         <v>190</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4640,10 +4640,10 @@
         <v>192</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4660,10 +4660,10 @@
         <v>194</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4680,10 +4680,10 @@
         <v>195</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4700,10 +4700,10 @@
         <v>197</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -4720,10 +4720,10 @@
         <v>199</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4740,10 +4740,10 @@
         <v>201</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4760,10 +4760,10 @@
         <v>203</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4780,10 +4780,10 @@
         <v>204</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4800,10 +4800,10 @@
         <v>205</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4820,10 +4820,10 @@
         <v>207</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4840,10 +4840,10 @@
         <v>209</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4860,10 +4860,10 @@
         <v>211</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4880,10 +4880,10 @@
         <v>212</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4900,10 +4900,10 @@
         <v>213</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4920,10 +4920,10 @@
         <v>214</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4940,10 +4940,10 @@
         <v>42</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4958,10 +4958,10 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4978,10 +4978,10 @@
         <v>218</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -4998,10 +4998,10 @@
         <v>219</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5018,10 +5018,10 @@
         <v>221</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5038,10 +5038,10 @@
         <v>223</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5058,10 +5058,10 @@
         <v>225</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5078,10 +5078,10 @@
         <v>227</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5098,10 +5098,10 @@
         <v>229</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5118,10 +5118,10 @@
         <v>231</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5138,10 +5138,10 @@
         <v>233</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5158,10 +5158,10 @@
         <v>235</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5178,10 +5178,10 @@
         <v>236</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5198,10 +5198,10 @@
         <v>238</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5218,10 +5218,10 @@
         <v>240</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5238,10 +5238,10 @@
         <v>242</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5258,10 +5258,10 @@
         <v>244</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5278,10 +5278,10 @@
         <v>246</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5298,10 +5298,10 @@
         <v>248</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5318,10 +5318,10 @@
         <v>250</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5338,10 +5338,10 @@
         <v>252</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5358,10 +5358,10 @@
         <v>254</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5378,10 +5378,10 @@
         <v>256</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5398,10 +5398,10 @@
         <v>258</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5416,10 +5416,10 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5436,10 +5436,10 @@
         <v>261</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5456,10 +5456,10 @@
         <v>263</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5476,10 +5476,10 @@
         <v>265</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5496,10 +5496,10 @@
         <v>268</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5516,10 +5516,10 @@
         <v>270</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5536,10 +5536,10 @@
         <v>272</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5556,10 +5556,10 @@
         <v>273</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5576,10 +5576,10 @@
         <v>275</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5596,10 +5596,10 @@
         <v>277</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5616,10 +5616,10 @@
         <v>279</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5636,10 +5636,10 @@
         <v>281</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5656,10 +5656,10 @@
         <v>283</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5676,10 +5676,10 @@
         <v>285</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5696,10 +5696,10 @@
         <v>287</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5716,10 +5716,10 @@
         <v>289</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5736,10 +5736,10 @@
         <v>291</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>293</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5776,10 +5776,10 @@
         <v>295</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -5796,10 +5796,10 @@
         <v>296</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5816,10 +5816,10 @@
         <v>298</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5836,10 +5836,10 @@
         <v>300</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5854,10 +5854,10 @@
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5872,10 +5872,10 @@
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5892,10 +5892,10 @@
         <v>305</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5912,10 +5912,10 @@
         <v>306</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5932,10 +5932,10 @@
         <v>308</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5952,10 +5952,10 @@
         <v>310</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5972,10 +5972,10 @@
         <v>311</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -5992,10 +5992,10 @@
         <v>312</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6012,10 +6012,10 @@
         <v>313</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6032,10 +6032,10 @@
         <v>314</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6052,10 +6052,10 @@
         <v>315</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6072,10 +6072,10 @@
         <v>317</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6092,10 +6092,10 @@
         <v>319</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6112,10 +6112,10 @@
         <v>320</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6132,10 +6132,10 @@
         <v>321</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6152,10 +6152,10 @@
         <v>323</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6172,10 +6172,10 @@
         <v>324</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6192,10 +6192,10 @@
         <v>325</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6212,10 +6212,10 @@
         <v>326</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6232,10 +6232,10 @@
         <v>327</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6252,10 +6252,10 @@
         <v>329</v>
       </c>
       <c r="E141" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6272,10 +6272,10 @@
         <v>331</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6292,10 +6292,10 @@
         <v>333</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6312,10 +6312,10 @@
         <v>335</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6332,10 +6332,10 @@
         <v>336</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6352,10 +6352,10 @@
         <v>338</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6372,10 +6372,10 @@
         <v>339</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6392,10 +6392,10 @@
         <v>340</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6412,10 +6412,10 @@
         <v>342</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6432,10 +6432,10 @@
         <v>343</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6452,10 +6452,10 @@
         <v>344</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6472,10 +6472,10 @@
         <v>345</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6492,10 +6492,10 @@
         <v>347</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6512,10 +6512,10 @@
         <v>349</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6532,10 +6532,10 @@
         <v>351</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6552,10 +6552,10 @@
         <v>352</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6572,10 +6572,10 @@
         <v>353</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6592,10 +6592,10 @@
         <v>355</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6612,10 +6612,10 @@
         <v>357</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6632,10 +6632,10 @@
         <v>359</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6652,10 +6652,10 @@
         <v>361</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6672,10 +6672,10 @@
         <v>363</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6692,10 +6692,10 @@
         <v>364</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6712,10 +6712,10 @@
         <v>365</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6732,10 +6732,10 @@
         <v>367</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6752,10 +6752,10 @@
         <v>369</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6772,10 +6772,10 @@
         <v>371</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6792,10 +6792,10 @@
         <v>372</v>
       </c>
       <c r="E168" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6812,10 +6812,10 @@
         <v>374</v>
       </c>
       <c r="E169" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6832,10 +6832,10 @@
         <v>376</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6852,10 +6852,10 @@
         <v>379</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6872,10 +6872,10 @@
         <v>381</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6892,10 +6892,10 @@
         <v>383</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6912,10 +6912,10 @@
         <v>384</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6932,10 +6932,10 @@
         <v>385</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6952,10 +6952,10 @@
         <v>387</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6972,10 +6972,10 @@
         <v>388</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6992,10 +6992,10 @@
         <v>389</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7012,10 +7012,10 @@
         <v>391</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7032,10 +7032,10 @@
         <v>393</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7052,10 +7052,10 @@
         <v>394</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7072,10 +7072,10 @@
         <v>396</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7092,10 +7092,10 @@
         <v>398</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7112,10 +7112,10 @@
         <v>399</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7132,10 +7132,10 @@
         <v>400</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7152,10 +7152,10 @@
         <v>402</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7172,10 +7172,10 @@
         <v>404</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7192,10 +7192,10 @@
         <v>405</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7212,10 +7212,10 @@
         <v>406</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7232,10 +7232,10 @@
         <v>408</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7252,10 +7252,10 @@
         <v>410</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7272,10 +7272,10 @@
         <v>412</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7292,10 +7292,10 @@
         <v>414</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7312,10 +7312,10 @@
         <v>416</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7332,10 +7332,10 @@
         <v>418</v>
       </c>
       <c r="E195" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7352,10 +7352,10 @@
         <v>420</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7370,10 +7370,10 @@
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7390,10 +7390,10 @@
         <v>425</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7410,10 +7410,10 @@
         <v>426</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7430,10 +7430,10 @@
         <v>427</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7450,10 +7450,10 @@
         <v>428</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7470,10 +7470,10 @@
         <v>429</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7490,10 +7490,10 @@
         <v>430</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7510,10 +7510,10 @@
         <v>431</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7530,10 +7530,10 @@
         <v>433</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7550,10 +7550,10 @@
         <v>435</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7570,10 +7570,10 @@
         <v>436</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7590,10 +7590,10 @@
         <v>438</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7610,10 +7610,10 @@
         <v>440</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7630,10 +7630,10 @@
         <v>442</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7650,10 +7650,10 @@
         <v>444</v>
       </c>
       <c r="E211" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7670,10 +7670,10 @@
         <v>445</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7690,10 +7690,10 @@
         <v>447</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7710,10 +7710,10 @@
         <v>449</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -7730,10 +7730,10 @@
         <v>451</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7750,10 +7750,10 @@
         <v>454</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7770,10 +7770,10 @@
         <v>455</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7790,10 +7790,10 @@
         <v>457</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7810,10 +7810,10 @@
         <v>459</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7830,10 +7830,10 @@
         <v>461</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7850,10 +7850,10 @@
         <v>463</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7870,10 +7870,10 @@
         <v>465</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7890,10 +7890,10 @@
         <v>467</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7910,10 +7910,10 @@
         <v>469</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7930,10 +7930,10 @@
         <v>471</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7950,10 +7950,10 @@
         <v>472</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7970,10 +7970,10 @@
         <v>474</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7990,10 +7990,10 @@
         <v>477</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8010,10 +8010,10 @@
         <v>479</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8030,10 +8030,10 @@
         <v>481</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8050,10 +8050,10 @@
         <v>483</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8070,10 +8070,10 @@
         <v>485</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8090,10 +8090,10 @@
         <v>486</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8110,10 +8110,10 @@
         <v>488</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8130,10 +8130,10 @@
         <v>489</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8150,10 +8150,10 @@
         <v>490</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8170,10 +8170,10 @@
         <v>492</v>
       </c>
       <c r="E237" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F237" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8188,10 +8188,10 @@
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8206,10 +8206,10 @@
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8224,10 +8224,10 @@
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F240" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8242,10 +8242,10 @@
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F241" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8262,10 +8262,10 @@
         <v>499</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8282,10 +8282,10 @@
         <v>501</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8302,10 +8302,10 @@
         <v>503</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8322,10 +8322,10 @@
         <v>505</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8342,10 +8342,10 @@
         <v>507</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8362,10 +8362,10 @@
         <v>508</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8382,10 +8382,10 @@
         <v>510</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8402,10 +8402,10 @@
         <v>512</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8422,10 +8422,10 @@
         <v>514</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8442,10 +8442,10 @@
         <v>515</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8462,10 +8462,10 @@
         <v>517</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8482,10 +8482,10 @@
         <v>518</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8502,10 +8502,10 @@
         <v>520</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8522,10 +8522,10 @@
         <v>522</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8542,10 +8542,10 @@
         <v>524</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8560,10 +8560,10 @@
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8577,10 +8577,10 @@
         <v>498</v>
       </c>
       <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E258" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
@@ -8596,10 +8596,10 @@
         <v>529</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8616,10 +8616,10 @@
         <v>531</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8636,10 +8636,10 @@
         <v>532</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8656,10 +8656,10 @@
         <v>534</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8676,10 +8676,10 @@
         <v>535</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8696,10 +8696,10 @@
         <v>537</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8716,10 +8716,10 @@
         <v>539</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8736,10 +8736,10 @@
         <v>540</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8756,10 +8756,10 @@
         <v>542</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8776,10 +8776,10 @@
         <v>544</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8796,10 +8796,10 @@
         <v>545</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8816,10 +8816,10 @@
         <v>547</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8836,10 +8836,10 @@
         <v>548</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8856,10 +8856,10 @@
         <v>550</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8876,10 +8876,10 @@
         <v>552</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8896,10 +8896,10 @@
         <v>554</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8916,10 +8916,10 @@
         <v>556</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8936,10 +8936,10 @@
         <v>559</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8956,10 +8956,10 @@
         <v>560</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8976,10 +8976,10 @@
         <v>561</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8996,10 +8996,10 @@
         <v>562</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9016,10 +9016,10 @@
         <v>563</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9036,10 +9036,10 @@
         <v>564</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9056,10 +9056,10 @@
         <v>566</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9076,10 +9076,10 @@
         <v>567</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9096,10 +9096,10 @@
         <v>569</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9116,10 +9116,10 @@
         <v>570</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9136,10 +9136,10 @@
         <v>572</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9156,10 +9156,10 @@
         <v>574</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9176,10 +9176,10 @@
         <v>576</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9196,10 +9196,10 @@
         <v>578</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9216,10 +9216,10 @@
         <v>580</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9236,10 +9236,10 @@
         <v>581</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9256,10 +9256,10 @@
         <v>582</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9276,10 +9276,10 @@
         <v>584</v>
       </c>
       <c r="E293" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F293" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9296,10 +9296,10 @@
         <v>586</v>
       </c>
       <c r="E294" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F294" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9316,10 +9316,10 @@
         <v>588</v>
       </c>
       <c r="E295" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F295" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9336,10 +9336,10 @@
         <v>590</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9356,10 +9356,10 @@
         <v>593</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9376,10 +9376,10 @@
         <v>594</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9396,10 +9396,10 @@
         <v>596</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -9416,10 +9416,10 @@
         <v>598</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9436,10 +9436,10 @@
         <v>600</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9456,10 +9456,10 @@
         <v>602</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9476,10 +9476,10 @@
         <v>603</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9496,10 +9496,10 @@
         <v>605</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9516,10 +9516,10 @@
         <v>607</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9536,10 +9536,10 @@
         <v>608</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9556,10 +9556,10 @@
         <v>609</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9576,10 +9576,10 @@
         <v>610</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9596,10 +9596,10 @@
         <v>611</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9616,10 +9616,10 @@
         <v>612</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9636,10 +9636,10 @@
         <v>614</v>
       </c>
       <c r="E311" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F311" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9656,10 +9656,10 @@
         <v>617</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9676,10 +9676,10 @@
         <v>618</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9696,10 +9696,10 @@
         <v>620</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9716,10 +9716,10 @@
         <v>621</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9736,10 +9736,10 @@
         <v>622</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9756,10 +9756,10 @@
         <v>623</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9776,10 +9776,10 @@
         <v>625</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9796,10 +9796,10 @@
         <v>626</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9816,10 +9816,10 @@
         <v>627</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9836,10 +9836,10 @@
         <v>629</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9856,10 +9856,10 @@
         <v>631</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9876,10 +9876,10 @@
         <v>633</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9896,10 +9896,10 @@
         <v>634</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9916,10 +9916,10 @@
         <v>635</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9936,10 +9936,10 @@
         <v>636</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9956,10 +9956,10 @@
         <v>637</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9976,10 +9976,10 @@
         <v>639</v>
       </c>
       <c r="E328" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F328" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F328" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9996,10 +9996,10 @@
         <v>642</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10016,10 +10016,10 @@
         <v>643</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10036,10 +10036,10 @@
         <v>645</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10056,10 +10056,10 @@
         <v>646</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10076,10 +10076,10 @@
         <v>647</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10096,10 +10096,10 @@
         <v>648</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10116,10 +10116,10 @@
         <v>650</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10136,10 +10136,10 @@
         <v>651</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10156,10 +10156,10 @@
         <v>653</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10176,10 +10176,10 @@
         <v>655</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10196,10 +10196,10 @@
         <v>656</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10216,10 +10216,10 @@
         <v>657</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10236,10 +10236,10 @@
         <v>658</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10256,10 +10256,10 @@
         <v>659</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10276,10 +10276,10 @@
         <v>660</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10296,10 +10296,10 @@
         <v>662</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10316,10 +10316,10 @@
         <v>664</v>
       </c>
       <c r="E345" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F345" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F345" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10336,10 +10336,10 @@
         <v>665</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10356,10 +10356,10 @@
         <v>667</v>
       </c>
       <c r="E347" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F347" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F347" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10376,10 +10376,10 @@
         <v>669</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10396,10 +10396,10 @@
         <v>671</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10416,10 +10416,10 @@
         <v>674</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10436,10 +10436,10 @@
         <v>676</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10456,10 +10456,10 @@
         <v>678</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10476,10 +10476,10 @@
         <v>680</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10496,10 +10496,10 @@
         <v>682</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10516,10 +10516,10 @@
         <v>684</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10536,10 +10536,10 @@
         <v>686</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10556,10 +10556,10 @@
         <v>688</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10576,10 +10576,10 @@
         <v>690</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10596,10 +10596,10 @@
         <v>692</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10616,10 +10616,10 @@
         <v>694</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10636,10 +10636,10 @@
         <v>696</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10656,10 +10656,10 @@
         <v>698</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10676,10 +10676,10 @@
         <v>700</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10696,10 +10696,10 @@
         <v>702</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10716,10 +10716,10 @@
         <v>704</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10736,10 +10736,10 @@
         <v>706</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10756,10 +10756,10 @@
         <v>708</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10776,10 +10776,10 @@
         <v>709</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10796,10 +10796,10 @@
         <v>711</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10816,10 +10816,10 @@
         <v>713</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10834,10 +10834,10 @@
       </c>
       <c r="D371" s="3"/>
       <c r="E371" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F371" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F371" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10852,10 +10852,10 @@
       </c>
       <c r="D372" s="3"/>
       <c r="E372" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F372" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F372" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10872,10 +10872,10 @@
         <v>718</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10892,10 +10892,10 @@
         <v>720</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -10912,10 +10912,10 @@
         <v>722</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10932,10 +10932,10 @@
         <v>724</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10952,10 +10952,10 @@
         <v>726</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -10972,10 +10972,10 @@
         <v>728</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10992,10 +10992,10 @@
         <v>730</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11012,10 +11012,10 @@
         <v>731</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11032,10 +11032,10 @@
         <v>733</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11052,10 +11052,10 @@
         <v>735</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11072,10 +11072,10 @@
         <v>737</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -11092,13 +11092,13 @@
         <v>739</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>79777413</v>
       </c>
@@ -11112,10 +11112,10 @@
         <v>741</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11132,10 +11132,10 @@
         <v>743</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11152,10 +11152,10 @@
         <v>745</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11172,10 +11172,10 @@
         <v>746</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11192,10 +11192,10 @@
         <v>748</v>
       </c>
       <c r="E389" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F389" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F389" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -11212,10 +11212,10 @@
         <v>750</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11232,10 +11232,10 @@
         <v>751</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -11252,10 +11252,10 @@
         <v>753</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11272,10 +11272,10 @@
         <v>754</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11292,10 +11292,10 @@
         <v>756</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11312,10 +11312,10 @@
         <v>758</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11332,10 +11332,10 @@
         <v>761</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11352,10 +11352,10 @@
         <v>762</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11372,10 +11372,10 @@
         <v>764</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11392,10 +11392,10 @@
         <v>765</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11412,10 +11412,10 @@
         <v>766</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11432,10 +11432,10 @@
         <v>768</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11452,10 +11452,10 @@
         <v>769</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11472,10 +11472,10 @@
         <v>770</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11492,10 +11492,10 @@
         <v>771</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11512,10 +11512,10 @@
         <v>773</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11532,10 +11532,10 @@
         <v>775</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11552,10 +11552,10 @@
         <v>776</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11572,10 +11572,10 @@
         <v>778</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11592,10 +11592,10 @@
         <v>779</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11612,10 +11612,10 @@
         <v>781</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11632,10 +11632,10 @@
         <v>783</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11652,10 +11652,10 @@
         <v>784</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11670,10 +11670,10 @@
       </c>
       <c r="D413" s="3"/>
       <c r="E413" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11688,10 +11688,10 @@
       </c>
       <c r="D414" s="3"/>
       <c r="E414" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11708,10 +11708,10 @@
         <v>788</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11728,10 +11728,10 @@
         <v>790</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11748,10 +11748,10 @@
         <v>792</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11768,10 +11768,10 @@
         <v>794</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11788,10 +11788,10 @@
         <v>796</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11808,10 +11808,10 @@
         <v>797</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11828,10 +11828,10 @@
         <v>799</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11848,10 +11848,10 @@
         <v>34</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11868,10 +11868,10 @@
         <v>802</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -11888,10 +11888,10 @@
         <v>804</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11908,10 +11908,10 @@
         <v>37</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11928,10 +11928,10 @@
         <v>3</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11948,10 +11948,10 @@
         <v>807</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11968,10 +11968,10 @@
         <v>808</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11988,10 +11988,10 @@
         <v>810</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12008,10 +12008,10 @@
         <v>812</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12028,10 +12028,10 @@
         <v>814</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12048,10 +12048,10 @@
         <v>816</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12068,10 +12068,10 @@
         <v>818</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12088,10 +12088,10 @@
         <v>820</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12108,10 +12108,10 @@
         <v>39</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12128,10 +12128,10 @@
         <v>823</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12148,10 +12148,10 @@
         <v>38</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12168,10 +12168,10 @@
         <v>826</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12188,10 +12188,10 @@
         <v>828</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12208,10 +12208,10 @@
         <v>35</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12228,10 +12228,10 @@
         <v>831</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12248,10 +12248,10 @@
         <v>833</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12268,10 +12268,10 @@
         <v>36</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12288,10 +12288,10 @@
         <v>836</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12308,10 +12308,10 @@
         <v>838</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12328,10 +12328,10 @@
         <v>840</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12348,10 +12348,10 @@
         <v>842</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12368,10 +12368,10 @@
         <v>844</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12388,10 +12388,10 @@
         <v>33</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12408,10 +12408,10 @@
         <v>847</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12428,10 +12428,10 @@
         <v>849</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12448,10 +12448,10 @@
         <v>851</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12466,10 +12466,10 @@
       </c>
       <c r="D453" s="3"/>
       <c r="E453" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12486,10 +12486,10 @@
         <v>854</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12506,10 +12506,10 @@
         <v>857</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12526,10 +12526,10 @@
         <v>859</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12546,10 +12546,10 @@
         <v>861</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12566,10 +12566,10 @@
         <v>863</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12586,10 +12586,10 @@
         <v>865</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12606,10 +12606,10 @@
         <v>867</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12626,10 +12626,10 @@
         <v>869</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12646,10 +12646,10 @@
         <v>871</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12666,10 +12666,10 @@
         <v>873</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12686,10 +12686,10 @@
         <v>875</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12706,10 +12706,10 @@
         <v>877</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12726,10 +12726,10 @@
         <v>879</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12746,10 +12746,10 @@
         <v>881</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12766,10 +12766,10 @@
         <v>883</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12786,10 +12786,10 @@
         <v>885</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12806,10 +12806,10 @@
         <v>887</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12826,10 +12826,10 @@
         <v>889</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12846,10 +12846,10 @@
         <v>891</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12866,10 +12866,10 @@
         <v>893</v>
       </c>
       <c r="E473" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12886,10 +12886,10 @@
         <v>895</v>
       </c>
       <c r="E474" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12906,10 +12906,10 @@
         <v>897</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12926,10 +12926,10 @@
         <v>899</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12946,10 +12946,10 @@
         <v>901</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12966,10 +12966,10 @@
         <v>903</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -12986,10 +12986,10 @@
         <v>905</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13006,10 +13006,10 @@
         <v>907</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13026,10 +13026,10 @@
         <v>910</v>
       </c>
       <c r="E481" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F481" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F481" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13046,10 +13046,10 @@
         <v>913</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13066,10 +13066,10 @@
         <v>915</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13086,10 +13086,10 @@
         <v>917</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13106,10 +13106,10 @@
         <v>919</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13126,10 +13126,10 @@
         <v>921</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13146,10 +13146,10 @@
         <v>923</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13166,10 +13166,10 @@
         <v>925</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13186,10 +13186,10 @@
         <v>927</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13206,10 +13206,10 @@
         <v>929</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13226,10 +13226,10 @@
         <v>931</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13246,10 +13246,10 @@
         <v>933</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13266,10 +13266,10 @@
         <v>935</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13286,10 +13286,10 @@
         <v>936</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13306,10 +13306,10 @@
         <v>938</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13326,10 +13326,10 @@
         <v>940</v>
       </c>
       <c r="E496" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13346,10 +13346,10 @@
         <v>941</v>
       </c>
       <c r="E497" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13366,10 +13366,10 @@
         <v>943</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13386,10 +13386,10 @@
         <v>945</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13406,10 +13406,10 @@
         <v>947</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13426,10 +13426,10 @@
         <v>949</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13446,10 +13446,10 @@
         <v>951</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13466,10 +13466,10 @@
         <v>953</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F503" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13486,10 +13486,10 @@
         <v>955</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13506,10 +13506,10 @@
         <v>957</v>
       </c>
       <c r="E505" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13526,10 +13526,10 @@
         <v>959</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13546,10 +13546,10 @@
         <v>960</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13566,10 +13566,10 @@
         <v>961</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13586,10 +13586,10 @@
         <v>963</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13606,10 +13606,10 @@
         <v>965</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13626,10 +13626,10 @@
         <v>967</v>
       </c>
       <c r="E511" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13644,10 +13644,10 @@
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13662,10 +13662,10 @@
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13680,10 +13680,10 @@
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F514" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F514" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13698,10 +13698,10 @@
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13718,10 +13718,10 @@
         <v>971</v>
       </c>
       <c r="E516" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F516" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="F516" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13738,10 +13738,10 @@
         <v>974</v>
       </c>
       <c r="E517" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13758,10 +13758,10 @@
         <v>976</v>
       </c>
       <c r="E518" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13778,10 +13778,10 @@
         <v>978</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13798,10 +13798,10 @@
         <v>979</v>
       </c>
       <c r="E520" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13818,10 +13818,10 @@
         <v>981</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13838,10 +13838,10 @@
         <v>983</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13858,10 +13858,10 @@
         <v>985</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -13878,10 +13878,10 @@
         <v>987</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F524" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13898,10 +13898,10 @@
         <v>988</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13918,10 +13918,10 @@
         <v>990</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13938,10 +13938,10 @@
         <v>992</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13958,10 +13958,10 @@
         <v>993</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13978,10 +13978,10 @@
         <v>995</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13996,10 +13996,10 @@
       </c>
       <c r="D530" s="3"/>
       <c r="E530" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14016,10 +14016,10 @@
         <v>998</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14036,10 +14036,10 @@
         <v>1000</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14056,10 +14056,10 @@
         <v>1002</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14076,10 +14076,10 @@
         <v>1004</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14096,10 +14096,10 @@
         <v>1005</v>
       </c>
       <c r="E535" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F535" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14116,10 +14116,10 @@
         <v>1007</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F536" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14136,10 +14136,10 @@
         <v>1009</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F537" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14156,10 +14156,10 @@
         <v>1011</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14176,10 +14176,10 @@
         <v>1013</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14196,10 +14196,10 @@
         <v>1015</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14216,10 +14216,10 @@
         <v>1017</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F541" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14236,10 +14236,10 @@
         <v>1019</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F542" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14256,10 +14256,10 @@
         <v>1021</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14276,10 +14276,10 @@
         <v>1023</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14296,10 +14296,10 @@
         <v>1025</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14314,10 +14314,10 @@
       </c>
       <c r="D546" s="3"/>
       <c r="E546" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
